--- a/TestData/TMTT0011413_Verify_the_time_entries_should_be_rounded_off_to_1_decimal_place_automatically.xlsx
+++ b/TestData/TMTT0011413_Verify_the_time_entries_should_be_rounded_off_to_1_decimal_place_automatically.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD247E8-C15F-4189-B63E-3C33BE7CE4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2460" windowHeight="0" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Global Search User</t>
   </si>
@@ -50,18 +51,12 @@
     <t>25</t>
   </si>
   <si>
-    <t>E - Project Clear-FVA-105379</t>
-  </si>
-  <si>
     <t>Activity Selection</t>
   </si>
   <si>
     <t>Fieldwork</t>
   </si>
   <si>
-    <t>Engagement Project Bend-FVA-109081</t>
-  </si>
-  <si>
     <t>Weekly Time Entry</t>
   </si>
   <si>
@@ -71,9 +66,6 @@
     <t>Rate Sheet</t>
   </si>
   <si>
-    <t>Project Clear-FVA-105379</t>
-  </si>
-  <si>
     <t>TAG Analyst</t>
   </si>
   <si>
@@ -87,12 +79,18 @@
   </si>
   <si>
     <t>0.9</t>
+  </si>
+  <si>
+    <t>Project Bend-Bernhard Capital Partners Management-FVA-109081</t>
+  </si>
+  <si>
+    <t>Project Clear-LucidHealth-FVA-105379</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,49 +464,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent2 2" xfId="7"/>
-    <cellStyle name="20% - Accent3 2" xfId="3"/>
-    <cellStyle name="20% - Accent4 2" xfId="4"/>
-    <cellStyle name="20% - Accent5 2" xfId="5"/>
-    <cellStyle name="20% - Accent6 2" xfId="6"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="7"/>
-    <cellStyle name="40% - Accent3 2" xfId="8"/>
-    <cellStyle name="40% - Accent4 2" xfId="10"/>
-    <cellStyle name="40% - Accent5 2" xfId="9"/>
-    <cellStyle name="40% - Accent6 2" xfId="10"/>
-    <cellStyle name="60% - Accent1 2" xfId="11"/>
-    <cellStyle name="60% - Accent2 2" xfId="12"/>
-    <cellStyle name="60% - Accent3 2" xfId="13"/>
-    <cellStyle name="60% - Accent4 2" xfId="14"/>
-    <cellStyle name="60% - Accent5 2" xfId="15"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="15"/>
-    <cellStyle name="Accent2 2" xfId="16"/>
-    <cellStyle name="Accent3 2" xfId="17"/>
-    <cellStyle name="Accent4 2" xfId="18"/>
-    <cellStyle name="Accent5 2" xfId="19"/>
-    <cellStyle name="Accent6 2" xfId="20"/>
-    <cellStyle name="Bad 2" xfId="21"/>
-    <cellStyle name="Calculation 2" xfId="22"/>
-    <cellStyle name="Check Cell 2" xfId="23"/>
-    <cellStyle name="Explanatory Text 2" xfId="24"/>
-    <cellStyle name="Good 2" xfId="25"/>
-    <cellStyle name="Heading 1 2" xfId="26"/>
-    <cellStyle name="Heading 2 2" xfId="27"/>
-    <cellStyle name="Heading 3 2" xfId="28"/>
-    <cellStyle name="Heading 4 2" xfId="29"/>
-    <cellStyle name="Input 2" xfId="30"/>
-    <cellStyle name="Linked Cell 2" xfId="31"/>
-    <cellStyle name="Neutral 2" xfId="32"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Heading 1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Input 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Neutral 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Note 2" xfId="33"/>
-    <cellStyle name="Output 2" xfId="34"/>
-    <cellStyle name="Title 2" xfId="35"/>
-    <cellStyle name="Total 2" xfId="36"/>
-    <cellStyle name="Warning Text 2" xfId="37"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Output 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Title 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Total 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Warning Text 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,110 +783,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -896,30 +807,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -927,55 +845,151 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTT0011413_Verify_the_time_entries_should_be_rounded_off_to_1_decimal_place_automatically.xlsx
+++ b/TestData/TMTT0011413_Verify_the_time_entries_should_be_rounded_off_to_1_decimal_place_automatically.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD247E8-C15F-4189-B63E-3C33BE7CE4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D16259D-F8E2-4141-B006-867F7429723E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Coartney Williams</t>
-  </si>
-  <si>
     <t>Staff Member</t>
   </si>
   <si>
@@ -85,13 +82,16 @@
   </si>
   <si>
     <t>Project Clear-LucidHealth-FVA-105379</t>
+  </si>
+  <si>
+    <t>Coartney Trone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,14 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -459,9 +467,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -786,20 +795,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -815,29 +825,29 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -853,19 +863,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -881,16 +891,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -906,22 +916,22 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -937,28 +947,28 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -970,26 +980,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
